--- a/Common/Message Definition.xlsx
+++ b/Common/Message Definition.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_kwy3381\Desktop\Workplace\Chat\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwy33\OneDrive\Desktop\Workplace\Chat\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFF82FE-BAC8-4D11-ACD6-905334D22AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995E77E5-8674-4FF7-A309-0CFBAD2B9792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10845" yWindow="0" windowWidth="17955" windowHeight="16200" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10275" yWindow="0" windowWidth="18525" windowHeight="16200" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="171">
   <si>
     <t>[Name]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,510 @@
   </si>
   <si>
     <t>Empty message response to PingPacket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendChatText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버에 채팅 메시지 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sender_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 텍스트 객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상 룸 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chat_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송 성공 여부 확인을 위한 채팅 id (client에서 사용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendChatIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버에 채팅 아이콘 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송자 유저 정보 (db id 확인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 아이콘 객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendChat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅을 전송한 클라이언트에 해당 채팅 전송성공 여부 응답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendChatError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 대상 룸 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 대상 채팅 id (client로 부터 받은 id 그대로 전달)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트에 전송할 텍스트 기반 채팅 메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 전송 유저 정보 (username)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 룸 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트에 전송할 아이콘 채팅 메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateRoomReq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성 요청하는 룸 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버에 룸 생성 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성 요청하는 룸 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 후 성공이면 바로 서버에서 확인 후, enter room 되고 res 클라이언트에 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateRoomRes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>룸 생성 요청에 대한 응답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateRoomRes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>룸 생성 요청 응답 처리 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 받은 룸 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성된 룸 정보 (res가 ok가 아니면 null)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res가 ok면 enter room 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnterRoomReq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>룸 참가 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가하려는 룸 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnterRoomRes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>룸 참가 요청에 대한 응답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnterRoomRes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 룸 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>룸 참가 요청에 대한 처리 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가한 룸 정보 (res가 ok가 아니면 null)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만약 CreateRoom 요청이 ok였을 경우 추가적인 enter room req가 없어도 이 메시지가 클라이언트에 전송됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomListReq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 속해 있는 룸 리스트 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 정보 (db id 확인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaveRoomReq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomListRes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomListReq의 response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트를 확인한 timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeated RoomInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rooms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청한 유저가 속해 있는 룸 정보 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>룸 나가기 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나가려는 룸 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No response message from server.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserEnterRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 룸에 새로 참가 했을 때 룸에 있는 다른 유저에게 알려주는 메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로 룸에 참가한 유저 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>룸 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entered_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가한 시간에 대한 Timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For broadcastin in server.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserLeftRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 룸에서 나갔을 때 룸에 있는 다른 유저에게 알려주는 메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>룸에서 나간 유저 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>룸을 나간 시간에 대한 Timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>룸 정보 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_db_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomDb primary key 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>룸 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>룸 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeated UserInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>룸에 들어와 있는 유저 정보; (nullabe)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 기본 정보 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chat_db_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatDb primary key 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chat_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 타입 (text or icon)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 시간에 대한 Timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 기반 채팅 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chat_base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 채팅 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이콘 기반 채팅 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이콘 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client sends this message and the server sends PongPacket. The client estimates the interval time as ping.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The server send this message as response of the PingPacket of client.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +720,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,8 +758,15 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="경기천년바탕 Regular"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +794,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,71 +896,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -451,13 +922,37 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -466,31 +961,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -775,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:G22"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -789,575 +1303,620 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="21" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="16"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="3"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>3</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>4</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>5</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="21" t="s">
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="16"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="3"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>1</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>2</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="3"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>3</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>4</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>5</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
     </row>
     <row r="27" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="21"/>
     </row>
     <row r="28" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="21" t="s">
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="16"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="3"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="19"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="10"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="31"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="10"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="31"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="20"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>1</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="3"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>2</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="3"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>3</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="3"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="19"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>4</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="3"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="19"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>5</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="19"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="3"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="19"/>
     </row>
     <row r="40" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="29"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="21"/>
     </row>
     <row r="41" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="16"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="3"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="19"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="10"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="31"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="10"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="31"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="27" t="s">
+      <c r="D46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="20"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="17"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>1</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="31" t="s">
+      <c r="E47" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F47" s="31"/>
-      <c r="G47" s="32"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="5">
+      <c r="B48" s="4">
         <v>2</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="30" t="s">
+      <c r="D48" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="31" t="s">
+      <c r="E48" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F48" s="31"/>
-      <c r="G48" s="32"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="13"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="5">
+      <c r="B49" s="4">
         <v>3</v>
       </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="32"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="5">
+      <c r="B50" s="4">
         <v>4</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="32"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="13"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="5">
+      <c r="B51" s="4">
         <v>5</v>
       </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="32"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="13"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="32"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="13"/>
     </row>
     <row r="53" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="35"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="B16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:G32"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:G45"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
     <mergeCell ref="E52:G52"/>
     <mergeCell ref="E53:G53"/>
     <mergeCell ref="E46:G46"/>
@@ -1366,51 +1925,6 @@
     <mergeCell ref="E49:G49"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:G45"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:G32"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="B16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1423,7 +1937,7 @@
   <dimension ref="B2:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G14"/>
+      <selection activeCell="B16" sqref="B16:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1435,267 +1949,252 @@
     <col min="5" max="5" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-    </row>
+    <row r="2" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="21" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="16"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="3"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>3</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>4</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>5</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="16"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="17"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>1</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>2</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>3</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>4</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="38">
+      <c r="B25" s="11">
         <v>5</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="25"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="25"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B16:G17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="B3:E4"/>
@@ -1709,6 +2208,17 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B16:G17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1717,309 +2227,810 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8DA2C4-2064-4814-9625-F142952C6C2E}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:G65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C95AFA-968E-406F-8FD7-26F0C3EAFFB6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD64D41F-5EE0-4A14-9466-8CADD5A0D5DF}">
-  <dimension ref="B1:G26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="35.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="21" t="s">
+      <c r="B2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>7</v>
+      <c r="G2" s="28" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="16"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="3"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
+      <c r="C4" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
+      <c r="C7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
+      <c r="C8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
+      <c r="C9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
+      <c r="C10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="21" t="s">
+      <c r="B15" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="18" t="s">
-        <v>7</v>
+      <c r="G15" s="28" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="16"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="3"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
+      <c r="C17" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>1</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
+      <c r="C20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>2</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
+      <c r="C21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>3</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
+      <c r="C22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>4</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
+      <c r="C23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>5</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="31"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="31"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>2</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="4">
+        <v>3</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
+        <v>4</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
+        <v>5</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="19"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="31"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="29"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="31"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="16"/>
+      <c r="G45" s="17"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
+        <v>1</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="4">
+        <v>2</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="4">
+        <v>3</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="4">
+        <v>4</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="4">
+        <v>5</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="15"/>
+    </row>
+    <row r="53" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="24"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="19"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="31"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="29"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="31"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="16"/>
+      <c r="G58" s="17"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="4">
+        <v>1</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F59" s="12"/>
+      <c r="G59" s="13"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="4">
+        <v>2</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F60" s="12"/>
+      <c r="G60" s="13"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="4">
+        <v>3</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F61" s="12"/>
+      <c r="G61" s="13"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="4">
+        <v>4</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="13"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="4">
+        <v>5</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="13"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B64" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="13"/>
+    </row>
+    <row r="65" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="65">
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="B54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:G57"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:G44"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="E26:G26"/>
+    <mergeCell ref="B28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:G31"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E21:G21"/>
@@ -2050,12 +3061,1752 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C95AFA-968E-406F-8FD7-26F0C3EAFFB6}">
+  <dimension ref="B1:G117"/>
+  <sheetViews>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="I107" sqref="I107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>4</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>3</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>4</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>5</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="31"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="31"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>2</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="4">
+        <v>3</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
+        <v>4</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
+        <v>5</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="19"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="31"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="29"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="31"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="16"/>
+      <c r="G45" s="17"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
+        <v>1</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="4">
+        <v>2</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="4">
+        <v>3</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="4">
+        <v>4</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="4">
+        <v>5</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="15"/>
+    </row>
+    <row r="53" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="24"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="19"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="31"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="29"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="31"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="16"/>
+      <c r="G58" s="17"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="4">
+        <v>1</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" s="12"/>
+      <c r="G59" s="13"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="4">
+        <v>2</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="13"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="4">
+        <v>3</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="13"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="4">
+        <v>4</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="13"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="4">
+        <v>5</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="13"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B64" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="13"/>
+    </row>
+    <row r="65" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="15"/>
+    </row>
+    <row r="66" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B67" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="19"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B69" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="31"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="29"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="31"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" s="16"/>
+      <c r="G71" s="17"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="4">
+        <v>1</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F72" s="12"/>
+      <c r="G72" s="13"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="4">
+        <v>2</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F73" s="12"/>
+      <c r="G73" s="13"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="4">
+        <v>3</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="13"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B75" s="4">
+        <v>4</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="13"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B76" s="4">
+        <v>5</v>
+      </c>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="13"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B77" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="13"/>
+    </row>
+    <row r="78" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="15"/>
+    </row>
+    <row r="79" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B80" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B81" s="24"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="19"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="31"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B83" s="29"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="31"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F84" s="16"/>
+      <c r="G84" s="17"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B85" s="4">
+        <v>1</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F85" s="12"/>
+      <c r="G85" s="13"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B86" s="4">
+        <v>2</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F86" s="12"/>
+      <c r="G86" s="13"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B87" s="4">
+        <v>3</v>
+      </c>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="13"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B88" s="4">
+        <v>4</v>
+      </c>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="13"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B89" s="4">
+        <v>5</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="13"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B90" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="13"/>
+    </row>
+    <row r="91" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="15"/>
+    </row>
+    <row r="92" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B93" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B94" s="24"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="19"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B95" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="31"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B96" s="29"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="31"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F97" s="16"/>
+      <c r="G97" s="17"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B98" s="4">
+        <v>1</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F98" s="12"/>
+      <c r="G98" s="13"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B99" s="4">
+        <v>2</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F99" s="12"/>
+      <c r="G99" s="13"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B100" s="4">
+        <v>3</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F100" s="12"/>
+      <c r="G100" s="13"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B101" s="4">
+        <v>4</v>
+      </c>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="13"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B102" s="4">
+        <v>5</v>
+      </c>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="13"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B103" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="13"/>
+    </row>
+    <row r="104" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="15"/>
+    </row>
+    <row r="105" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B106" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C106" s="23"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B107" s="24"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="19"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B108" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="31"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B109" s="29"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="31"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F110" s="16"/>
+      <c r="G110" s="17"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B111" s="4">
+        <v>1</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F111" s="12"/>
+      <c r="G111" s="13"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B112" s="4">
+        <v>2</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F112" s="12"/>
+      <c r="G112" s="13"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B113" s="4">
+        <v>3</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F113" s="12"/>
+      <c r="G113" s="13"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B114" s="4">
+        <v>4</v>
+      </c>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="13"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B115" s="4">
+        <v>5</v>
+      </c>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="13"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B116" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="13"/>
+    </row>
+    <row r="117" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B117" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="111">
+    <mergeCell ref="E114:G114"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="C90:G91"/>
+    <mergeCell ref="C103:G104"/>
+    <mergeCell ref="C116:G117"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:G109"/>
+    <mergeCell ref="E110:G110"/>
+    <mergeCell ref="E111:G111"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="B106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:G96"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="B93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="B80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:G70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="C51:G52"/>
+    <mergeCell ref="B67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="B54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:G57"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="B41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="C12:G13"/>
+    <mergeCell ref="C25:G26"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:G5"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD64D41F-5EE0-4A14-9466-8CADD5A0D5DF}">
+  <dimension ref="B1:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="I9" s="35"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>4</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>3</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>4</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>5</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C12:G13"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="C25:G26"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4532DE24-9B24-4DC9-8F8E-855EB7D2A432}">
-  <dimension ref="B1:G11"/>
+  <dimension ref="B1:G55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2068,129 +4819,651 @@
   <sheetData>
     <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="16"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="17"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="38">
+      <c r="B11" s="11">
         <v>5</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="33"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>3</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>4</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="11">
+        <v>5</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="33"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="34"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="31"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
+        <v>2</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>3</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>4</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="11">
+        <v>5</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="33"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="34"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="31"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="31"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
+        <v>2</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="4">
+        <v>3</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>4</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="11">
+        <v>5</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="15"/>
+    </row>
+    <row r="45" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="33"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="34"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="31"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="29"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="31"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="16"/>
+      <c r="G50" s="17"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="4">
+        <v>1</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F51" s="12"/>
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="4">
+        <v>2</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F52" s="12"/>
+      <c r="G52" s="13"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="4">
+        <v>3</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="13"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="4">
+        <v>4</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="13"/>
+    </row>
+    <row r="55" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="11">
+        <v>5</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="45">
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="B46:G47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="B35:G36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:G38"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B24:G25"/>
+    <mergeCell ref="B13:G14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>

--- a/Common/Message Definition.xlsx
+++ b/Common/Message Definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_kwy3381\Desktop\Workplace\Chat\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D9E417-5029-4AE7-BA06-B0643D19C237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DFFF7A-E4B8-4352-8AAE-20111CCB047F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="209">
   <si>
     <t>[Name]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -830,6 +830,42 @@
   </si>
   <si>
     <t>로그인 요청하는 IPv4주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServerIp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServerPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 서버 포트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 서버 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 서버 Ip 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 로그인 요청에 대한 응답 패킷 Res가 1이 아닌경우 각 속성의 값은 기본값 or null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1013,7 +1049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1055,8 +1091,44 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1070,12 +1142,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1085,44 +1151,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1406,7 +1480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -1420,51 +1494,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="22" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="23"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="25"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
@@ -1476,11 +1550,11 @@
       <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="4">
@@ -1492,10 +1566,10 @@
       <c r="D8" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="F8" s="31"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="2:7">
@@ -1508,10 +1582,10 @@
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="F9" s="31"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="25"/>
     </row>
     <row r="10" spans="2:7">
@@ -1524,10 +1598,10 @@
       <c r="D10" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="F10" s="31"/>
+      <c r="F10" s="24"/>
       <c r="G10" s="25"/>
     </row>
     <row r="11" spans="2:7">
@@ -1536,8 +1610,8 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="25"/>
     </row>
     <row r="12" spans="2:7">
@@ -1546,8 +1620,8 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="25"/>
     </row>
     <row r="13" spans="2:7">
@@ -1556,8 +1630,8 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="25"/>
     </row>
     <row r="14" spans="2:7" ht="17.25" thickBot="1">
@@ -1566,52 +1640,52 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="16" spans="2:7">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="22" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="23"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="33"/>
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="1" t="s">
@@ -1623,11 +1697,11 @@
       <c r="D20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="4">
@@ -1639,10 +1713,10 @@
       <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="31"/>
+      <c r="F21" s="24"/>
       <c r="G21" s="25"/>
     </row>
     <row r="22" spans="2:7">
@@ -1655,10 +1729,10 @@
       <c r="D22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="31"/>
+      <c r="F22" s="24"/>
       <c r="G22" s="25"/>
     </row>
     <row r="23" spans="2:7">
@@ -1667,8 +1741,8 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
       <c r="G23" s="25"/>
     </row>
     <row r="24" spans="2:7">
@@ -1677,8 +1751,8 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
       <c r="G24" s="25"/>
     </row>
     <row r="25" spans="2:7">
@@ -1687,8 +1761,8 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
       <c r="G25" s="25"/>
     </row>
     <row r="26" spans="2:7">
@@ -1697,8 +1771,8 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
       <c r="G26" s="25"/>
     </row>
     <row r="27" spans="2:7" ht="17.25" thickBot="1">
@@ -1707,52 +1781,52 @@
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
     </row>
     <row r="28" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="29" spans="2:7">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="22" t="s">
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="23"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="33"/>
       <c r="G30" s="25"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="28"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="26"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="23"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="1" t="s">
@@ -1764,11 +1838,11 @@
       <c r="D33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="E33" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="4">
@@ -1780,10 +1854,10 @@
       <c r="D34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="31"/>
+      <c r="F34" s="24"/>
       <c r="G34" s="25"/>
     </row>
     <row r="35" spans="2:7">
@@ -1796,10 +1870,10 @@
       <c r="D35" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="31"/>
+      <c r="F35" s="24"/>
       <c r="G35" s="25"/>
     </row>
     <row r="36" spans="2:7">
@@ -1808,8 +1882,8 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
       <c r="G36" s="25"/>
     </row>
     <row r="37" spans="2:7">
@@ -1818,8 +1892,8 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
       <c r="G37" s="25"/>
     </row>
     <row r="38" spans="2:7">
@@ -1828,8 +1902,8 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
       <c r="G38" s="25"/>
     </row>
     <row r="39" spans="2:7">
@@ -1838,8 +1912,8 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
       <c r="G39" s="25"/>
     </row>
     <row r="40" spans="2:7" ht="17.25" thickBot="1">
@@ -1848,52 +1922,52 @@
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="21"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="27"/>
     </row>
     <row r="41" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="42" spans="2:7">
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="22" t="s">
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="23"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="33"/>
       <c r="G43" s="25"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="28"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="23"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="26"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="28"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="23"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="1" t="s">
@@ -1905,11 +1979,11 @@
       <c r="D46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="29" t="s">
+      <c r="E46" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F46" s="29"/>
-      <c r="G46" s="30"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="20"/>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="4">
@@ -1921,11 +1995,11 @@
       <c r="D47" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="32" t="s">
+      <c r="E47" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="32"/>
-      <c r="G47" s="33"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="4">
@@ -1937,11 +2011,11 @@
       <c r="D48" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="32" t="s">
+      <c r="E48" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="32"/>
-      <c r="G48" s="33"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="16"/>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="4">
@@ -1949,9 +2023,9 @@
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="33"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="16"/>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="4">
@@ -1959,9 +2033,9 @@
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="33"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="16"/>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="4">
@@ -1969,9 +2043,9 @@
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="33"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="16"/>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="13" t="s">
@@ -1979,9 +2053,9 @@
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="33"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="16"/>
     </row>
     <row r="53" spans="2:7" ht="17.25" thickBot="1">
       <c r="B53" s="8" t="s">
@@ -1989,51 +2063,12 @@
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="35"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:G45"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:G32"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="B16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:E4"/>
     <mergeCell ref="E14:G14"/>
@@ -2048,6 +2083,45 @@
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="B16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:G32"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:G45"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2074,42 +2148,42 @@
   <sheetData>
     <row r="2" spans="2:7" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="3" spans="2:7" ht="19.5" customHeight="1">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="22" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="24"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="23"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="25"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
@@ -2121,11 +2195,11 @@
       <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="4">
@@ -2133,9 +2207,9 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="4">
@@ -2143,9 +2217,9 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="4">
@@ -2153,9 +2227,9 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="4">
@@ -2163,9 +2237,9 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="4">
@@ -2173,9 +2247,9 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="7" t="s">
@@ -2183,9 +2257,9 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="2:7" ht="17.25" thickBot="1">
       <c r="B14" s="8" t="s">
@@ -2193,46 +2267,46 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="16" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="36"/>
     </row>
     <row r="17" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="1" t="s">
@@ -2244,11 +2318,11 @@
       <c r="D20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="4">
@@ -2256,9 +2330,9 @@
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="4">
@@ -2266,9 +2340,9 @@
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="4">
@@ -2276,9 +2350,9 @@
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="4">
@@ -2286,9 +2360,9 @@
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="2:7" ht="17.25" thickBot="1">
       <c r="B25" s="11">
@@ -2296,53 +2370,53 @@
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" ht="17.25" thickBot="1">
       <c r="B26" s="2"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
       <c r="G27" s="36"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
       <c r="G28" s="37"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="28"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="23"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="1" t="s">
@@ -2351,87 +2425,87 @@
       <c r="C31" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="4"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="33"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="4"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="33"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="4"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="4"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="33"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" spans="2:7" ht="17.25" thickBot="1">
       <c r="B36" s="11"/>
       <c r="C36" s="10"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="35"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="B27:G28"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B16:G17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:G30"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="E26:G26"/>
-    <mergeCell ref="B16:G17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="B27:G28"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D33:G33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2456,46 +2530,46 @@
   <sheetData>
     <row r="1" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:7">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="22" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="25"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
@@ -2507,11 +2581,11 @@
       <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="4">
@@ -2523,11 +2597,11 @@
       <c r="D7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="4">
@@ -2539,11 +2613,11 @@
       <c r="D8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="4">
@@ -2555,11 +2629,11 @@
       <c r="D9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="4">
@@ -2571,11 +2645,11 @@
       <c r="D10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="4">
@@ -2583,9 +2657,9 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="13" t="s">
@@ -2593,9 +2667,9 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="2:7" ht="17.25" thickBot="1">
       <c r="B13" s="8" t="s">
@@ -2603,52 +2677,52 @@
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="15" spans="2:7">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="22" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="23"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="25"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="1" t="s">
@@ -2660,11 +2734,11 @@
       <c r="D19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="4">
@@ -2676,11 +2750,11 @@
       <c r="D20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="4">
@@ -2692,11 +2766,11 @@
       <c r="D21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="4">
@@ -2708,11 +2782,11 @@
       <c r="D22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="4">
@@ -2724,11 +2798,11 @@
       <c r="D23" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="4">
@@ -2736,9 +2810,9 @@
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="13" t="s">
@@ -2746,9 +2820,9 @@
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="2:7" ht="17.25" thickBot="1">
       <c r="B26" s="8" t="s">
@@ -2756,52 +2830,52 @@
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="28" spans="2:7">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="22" t="s">
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="23"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="33"/>
       <c r="G29" s="25"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="28"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="1" t="s">
@@ -2813,11 +2887,11 @@
       <c r="D32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="4">
@@ -2829,11 +2903,11 @@
       <c r="D33" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="33"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="4">
@@ -2845,11 +2919,11 @@
       <c r="D34" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="4">
@@ -2861,11 +2935,11 @@
       <c r="D35" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="32"/>
-      <c r="G35" s="33"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="4">
@@ -2873,9 +2947,9 @@
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="33"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="16"/>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="4">
@@ -2883,9 +2957,9 @@
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="33"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="16"/>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="7" t="s">
@@ -2893,9 +2967,9 @@
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="33"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="16"/>
     </row>
     <row r="39" spans="2:7" ht="17.25" thickBot="1">
       <c r="B39" s="14" t="s">
@@ -2903,52 +2977,52 @@
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="35"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18"/>
     </row>
     <row r="40" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="41" spans="2:7">
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="22" t="s">
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="23"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="33"/>
       <c r="G42" s="25"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="28"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="23"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="26"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="28"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="23"/>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="1" t="s">
@@ -2960,11 +3034,11 @@
       <c r="D45" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="29"/>
-      <c r="G45" s="30"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="20"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="4">
@@ -2976,11 +3050,11 @@
       <c r="D46" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E46" s="32" t="s">
+      <c r="E46" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F46" s="32"/>
-      <c r="G46" s="33"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="16"/>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="4">
@@ -2992,11 +3066,11 @@
       <c r="D47" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E47" s="32" t="s">
+      <c r="E47" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F47" s="32"/>
-      <c r="G47" s="33"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="4">
@@ -3008,11 +3082,11 @@
       <c r="D48" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E48" s="32" t="s">
+      <c r="E48" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F48" s="32"/>
-      <c r="G48" s="33"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="16"/>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="4">
@@ -3020,9 +3094,9 @@
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="33"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="16"/>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="4">
@@ -3030,9 +3104,9 @@
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="33"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="16"/>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="7" t="s">
@@ -3040,9 +3114,9 @@
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="33"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="16"/>
     </row>
     <row r="52" spans="2:7" ht="17.25" thickBot="1">
       <c r="B52" s="14" t="s">
@@ -3050,52 +3124,52 @@
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="35"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="18"/>
     </row>
     <row r="53" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="54" spans="2:7">
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="22" t="s">
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="24" t="s">
+      <c r="G54" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="18"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="23"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="33"/>
       <c r="G55" s="25"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="28"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="23"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="26"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="28"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="23"/>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="1" t="s">
@@ -3107,11 +3181,11 @@
       <c r="D58" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="29" t="s">
+      <c r="E58" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="29"/>
-      <c r="G58" s="30"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="20"/>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="4">
@@ -3123,11 +3197,11 @@
       <c r="D59" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E59" s="32" t="s">
+      <c r="E59" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F59" s="32"/>
-      <c r="G59" s="33"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="16"/>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="4">
@@ -3139,11 +3213,11 @@
       <c r="D60" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E60" s="32" t="s">
+      <c r="E60" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="32"/>
-      <c r="G60" s="33"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="16"/>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="4">
@@ -3155,11 +3229,11 @@
       <c r="D61" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E61" s="32" t="s">
+      <c r="E61" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F61" s="32"/>
-      <c r="G61" s="33"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="16"/>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="4">
@@ -3167,9 +3241,9 @@
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="33"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="16"/>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="4">
@@ -3177,9 +3251,9 @@
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="33"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="16"/>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="7" t="s">
@@ -3187,9 +3261,9 @@
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="33"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="16"/>
     </row>
     <row r="65" spans="2:7" ht="17.25" thickBot="1">
       <c r="B65" s="14" t="s">
@@ -3197,30 +3271,46 @@
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="35"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:G18"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:G57"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="B54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:G44"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="C30:G31"/>
     <mergeCell ref="E19:G19"/>
@@ -3234,40 +3324,24 @@
     <mergeCell ref="B28:E29"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:G44"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:G57"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="B54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:G18"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3292,46 +3366,46 @@
   <sheetData>
     <row r="1" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:7">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="22" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="25"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
@@ -3343,11 +3417,11 @@
       <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="4">
@@ -3359,11 +3433,11 @@
       <c r="D7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="4">
@@ -3375,11 +3449,11 @@
       <c r="D8" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="4">
@@ -3387,9 +3461,9 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="4">
@@ -3397,9 +3471,9 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="4">
@@ -3407,74 +3481,74 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="2:7" ht="17.25" thickBot="1">
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="15" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="22" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="23"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="25"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="1" t="s">
@@ -3486,11 +3560,11 @@
       <c r="D19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="4">
@@ -3502,11 +3576,11 @@
       <c r="D20" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="4">
@@ -3518,11 +3592,11 @@
       <c r="D21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="4">
@@ -3534,11 +3608,11 @@
       <c r="D22" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="4">
@@ -3546,9 +3620,9 @@
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="4">
@@ -3556,74 +3630,74 @@
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="2:7" ht="17.25" thickBot="1">
       <c r="B26" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="28" spans="2:7">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="22" t="s">
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="23"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="33"/>
       <c r="G29" s="25"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="28"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="1" t="s">
@@ -3635,11 +3709,11 @@
       <c r="D32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="4">
@@ -3651,11 +3725,11 @@
       <c r="D33" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="33"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="4">
@@ -3663,9 +3737,9 @@
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="4">
@@ -3673,9 +3747,9 @@
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="33"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="4">
@@ -3683,9 +3757,9 @@
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="33"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="16"/>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="4">
@@ -3693,9 +3767,9 @@
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="33"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="16"/>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="13" t="s">
@@ -3703,9 +3777,9 @@
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="33"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="16"/>
     </row>
     <row r="39" spans="2:7" ht="17.25" thickBot="1">
       <c r="B39" s="8" t="s">
@@ -3713,52 +3787,52 @@
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="35"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18"/>
     </row>
     <row r="40" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="41" spans="2:7">
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="22" t="s">
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="23"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="33"/>
       <c r="G42" s="25"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="28"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="23"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="26"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="28"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="23"/>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="1" t="s">
@@ -3770,11 +3844,11 @@
       <c r="D45" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="29"/>
-      <c r="G45" s="30"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="20"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="4">
@@ -3786,11 +3860,11 @@
       <c r="D46" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E46" s="32" t="s">
+      <c r="E46" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="F46" s="32"/>
-      <c r="G46" s="33"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="16"/>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="4">
@@ -3802,11 +3876,11 @@
       <c r="D47" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="32" t="s">
+      <c r="E47" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="32"/>
-      <c r="G47" s="33"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="4">
@@ -3818,11 +3892,11 @@
       <c r="D48" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E48" s="32" t="s">
+      <c r="E48" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F48" s="32"/>
-      <c r="G48" s="33"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="16"/>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="4">
@@ -3830,9 +3904,9 @@
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="33"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="16"/>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="4">
@@ -3840,74 +3914,74 @@
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="33"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="16"/>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="33"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="16"/>
     </row>
     <row r="52" spans="2:7" ht="17.25" thickBot="1">
       <c r="B52" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="35"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="18"/>
     </row>
     <row r="53" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="54" spans="2:7">
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="22" t="s">
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="24" t="s">
+      <c r="G54" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="18"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="23"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="33"/>
       <c r="G55" s="25"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="28"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="23"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="26"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="28"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="23"/>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="1" t="s">
@@ -3919,11 +3993,11 @@
       <c r="D58" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="29" t="s">
+      <c r="E58" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="29"/>
-      <c r="G58" s="30"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="20"/>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="4">
@@ -3935,11 +4009,11 @@
       <c r="D59" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E59" s="32" t="s">
+      <c r="E59" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F59" s="32"/>
-      <c r="G59" s="33"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="16"/>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="4">
@@ -3947,9 +4021,9 @@
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="33"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="16"/>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="4">
@@ -3957,9 +4031,9 @@
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="33"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="16"/>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="4">
@@ -3967,9 +4041,9 @@
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="33"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="16"/>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="4">
@@ -3977,9 +4051,9 @@
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="33"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="16"/>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="13" t="s">
@@ -3987,9 +4061,9 @@
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="33"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="16"/>
     </row>
     <row r="65" spans="2:7" ht="17.25" thickBot="1">
       <c r="B65" s="8" t="s">
@@ -3997,52 +4071,52 @@
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="35"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="18"/>
     </row>
     <row r="66" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="67" spans="2:7">
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="22" t="s">
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G67" s="24" t="s">
+      <c r="G67" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="18"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="23"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="33"/>
       <c r="G68" s="25"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="27" t="s">
+      <c r="C69" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="28"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="23"/>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="26"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="28"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="23"/>
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="1" t="s">
@@ -4054,11 +4128,11 @@
       <c r="D71" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="29" t="s">
+      <c r="E71" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F71" s="29"/>
-      <c r="G71" s="30"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="20"/>
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="4">
@@ -4070,11 +4144,11 @@
       <c r="D72" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E72" s="32" t="s">
+      <c r="E72" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="F72" s="32"/>
-      <c r="G72" s="33"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="16"/>
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="4">
@@ -4086,11 +4160,11 @@
       <c r="D73" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E73" s="32" t="s">
+      <c r="E73" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="F73" s="32"/>
-      <c r="G73" s="33"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="16"/>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="4">
@@ -4098,9 +4172,9 @@
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="33"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="16"/>
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="4">
@@ -4108,9 +4182,9 @@
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="33"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="16"/>
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="4">
@@ -4118,9 +4192,9 @@
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="32"/>
-      <c r="G76" s="33"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="16"/>
     </row>
     <row r="77" spans="2:7">
       <c r="B77" s="7" t="s">
@@ -4128,9 +4202,9 @@
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="32"/>
-      <c r="G77" s="33"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="16"/>
     </row>
     <row r="78" spans="2:7" ht="17.25" thickBot="1">
       <c r="B78" s="14" t="s">
@@ -4138,52 +4212,52 @@
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="35"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="18"/>
     </row>
     <row r="79" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="80" spans="2:7">
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="22" t="s">
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G80" s="24" t="s">
+      <c r="G80" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="18"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="23"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="33"/>
       <c r="G81" s="25"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="26" t="s">
+      <c r="B82" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C82" s="27" t="s">
+      <c r="C82" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="28"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="23"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="26"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="28"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="23"/>
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="1" t="s">
@@ -4195,11 +4269,11 @@
       <c r="D84" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="29" t="s">
+      <c r="E84" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F84" s="29"/>
-      <c r="G84" s="30"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="20"/>
     </row>
     <row r="85" spans="2:7">
       <c r="B85" s="4">
@@ -4211,11 +4285,11 @@
       <c r="D85" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E85" s="32" t="s">
+      <c r="E85" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F85" s="32"/>
-      <c r="G85" s="33"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="16"/>
     </row>
     <row r="86" spans="2:7">
       <c r="B86" s="4">
@@ -4227,11 +4301,11 @@
       <c r="D86" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E86" s="32" t="s">
+      <c r="E86" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="F86" s="32"/>
-      <c r="G86" s="33"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="16"/>
     </row>
     <row r="87" spans="2:7">
       <c r="B87" s="4">
@@ -4239,9 +4313,9 @@
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="33"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="16"/>
     </row>
     <row r="88" spans="2:7">
       <c r="B88" s="4">
@@ -4249,9 +4323,9 @@
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="32"/>
-      <c r="G88" s="33"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="16"/>
     </row>
     <row r="89" spans="2:7">
       <c r="B89" s="4">
@@ -4259,74 +4333,74 @@
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="32"/>
-      <c r="G89" s="33"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="16"/>
     </row>
     <row r="90" spans="2:7">
       <c r="B90" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C90" s="32" t="s">
+      <c r="C90" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D90" s="32"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="32"/>
-      <c r="G90" s="33"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="16"/>
     </row>
     <row r="91" spans="2:7" ht="17.25" thickBot="1">
       <c r="B91" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="35"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="18"/>
     </row>
     <row r="92" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="93" spans="2:7">
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="22" t="s">
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G93" s="24" t="s">
+      <c r="G93" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="18"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="23"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="33"/>
       <c r="G94" s="25"/>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="26" t="s">
+      <c r="B95" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C95" s="27" t="s">
+      <c r="C95" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="28"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="23"/>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="26"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="28"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="23"/>
     </row>
     <row r="97" spans="2:7">
       <c r="B97" s="1" t="s">
@@ -4338,11 +4412,11 @@
       <c r="D97" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E97" s="29" t="s">
+      <c r="E97" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F97" s="29"/>
-      <c r="G97" s="30"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="20"/>
     </row>
     <row r="98" spans="2:7">
       <c r="B98" s="4">
@@ -4354,11 +4428,11 @@
       <c r="D98" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E98" s="32" t="s">
+      <c r="E98" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="F98" s="32"/>
-      <c r="G98" s="33"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="16"/>
     </row>
     <row r="99" spans="2:7">
       <c r="B99" s="4">
@@ -4370,11 +4444,11 @@
       <c r="D99" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E99" s="32" t="s">
+      <c r="E99" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F99" s="32"/>
-      <c r="G99" s="33"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="16"/>
     </row>
     <row r="100" spans="2:7">
       <c r="B100" s="4">
@@ -4386,11 +4460,11 @@
       <c r="D100" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E100" s="32" t="s">
+      <c r="E100" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="F100" s="32"/>
-      <c r="G100" s="33"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="16"/>
     </row>
     <row r="101" spans="2:7">
       <c r="B101" s="4">
@@ -4398,9 +4472,9 @@
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
-      <c r="E101" s="32"/>
-      <c r="F101" s="32"/>
-      <c r="G101" s="33"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="16"/>
     </row>
     <row r="102" spans="2:7">
       <c r="B102" s="4">
@@ -4408,74 +4482,74 @@
       </c>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="32"/>
-      <c r="G102" s="33"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="16"/>
     </row>
     <row r="103" spans="2:7">
       <c r="B103" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="32" t="s">
+      <c r="C103" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D103" s="32"/>
-      <c r="E103" s="32"/>
-      <c r="F103" s="32"/>
-      <c r="G103" s="33"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="16"/>
     </row>
     <row r="104" spans="2:7" ht="17.25" thickBot="1">
       <c r="B104" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="34"/>
-      <c r="D104" s="34"/>
-      <c r="E104" s="34"/>
-      <c r="F104" s="34"/>
-      <c r="G104" s="35"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="18"/>
     </row>
     <row r="105" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="106" spans="2:7">
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="22" t="s">
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G106" s="24" t="s">
+      <c r="G106" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="18"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="23"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="31"/>
+      <c r="F107" s="33"/>
       <c r="G107" s="25"/>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="26" t="s">
+      <c r="B108" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C108" s="27" t="s">
+      <c r="C108" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="28"/>
+      <c r="D108" s="22"/>
+      <c r="E108" s="22"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="23"/>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="26"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
-      <c r="G109" s="28"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="23"/>
     </row>
     <row r="110" spans="2:7">
       <c r="B110" s="1" t="s">
@@ -4487,11 +4561,11 @@
       <c r="D110" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E110" s="29" t="s">
+      <c r="E110" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F110" s="29"/>
-      <c r="G110" s="30"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="20"/>
     </row>
     <row r="111" spans="2:7">
       <c r="B111" s="4">
@@ -4503,11 +4577,11 @@
       <c r="D111" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E111" s="32" t="s">
+      <c r="E111" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="F111" s="32"/>
-      <c r="G111" s="33"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="16"/>
     </row>
     <row r="112" spans="2:7">
       <c r="B112" s="4">
@@ -4519,11 +4593,11 @@
       <c r="D112" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E112" s="32" t="s">
+      <c r="E112" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F112" s="32"/>
-      <c r="G112" s="33"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="16"/>
     </row>
     <row r="113" spans="2:7">
       <c r="B113" s="4">
@@ -4535,11 +4609,11 @@
       <c r="D113" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E113" s="32" t="s">
+      <c r="E113" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="F113" s="32"/>
-      <c r="G113" s="33"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="16"/>
     </row>
     <row r="114" spans="2:7">
       <c r="B114" s="4">
@@ -4547,9 +4621,9 @@
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
-      <c r="E114" s="32"/>
-      <c r="F114" s="32"/>
-      <c r="G114" s="33"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="16"/>
     </row>
     <row r="115" spans="2:7">
       <c r="B115" s="4">
@@ -4557,48 +4631,108 @@
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
-      <c r="E115" s="32"/>
-      <c r="F115" s="32"/>
-      <c r="G115" s="33"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="16"/>
     </row>
     <row r="116" spans="2:7">
       <c r="B116" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C116" s="32" t="s">
+      <c r="C116" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D116" s="32"/>
-      <c r="E116" s="32"/>
-      <c r="F116" s="32"/>
-      <c r="G116" s="33"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="16"/>
     </row>
     <row r="117" spans="2:7" ht="17.25" thickBot="1">
       <c r="B117" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C117" s="34"/>
-      <c r="D117" s="34"/>
-      <c r="E117" s="34"/>
-      <c r="F117" s="34"/>
-      <c r="G117" s="35"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:G5"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E114:G114"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="C90:G91"/>
+    <mergeCell ref="C103:G104"/>
+    <mergeCell ref="C116:G117"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:G109"/>
+    <mergeCell ref="E110:G110"/>
+    <mergeCell ref="E111:G111"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="B106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:G96"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="B93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="B80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:G70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="C51:G52"/>
+    <mergeCell ref="B67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="B54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:G57"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="B41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:G44"/>
+    <mergeCell ref="E45:G45"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="E37:G37"/>
     <mergeCell ref="E38:G38"/>
@@ -4622,80 +4756,20 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="B41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="C51:G52"/>
-    <mergeCell ref="B67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="B54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:G57"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="B80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:G70"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="B93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="E114:G114"/>
-    <mergeCell ref="E115:G115"/>
-    <mergeCell ref="C90:G91"/>
-    <mergeCell ref="C103:G104"/>
-    <mergeCell ref="C116:G117"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:G109"/>
-    <mergeCell ref="E110:G110"/>
-    <mergeCell ref="E111:G111"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="B106:E107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:G96"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:G5"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4721,46 +4795,46 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="22" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="25"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="1" t="s">
@@ -4772,11 +4846,11 @@
       <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="4">
@@ -4784,9 +4858,9 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="4">
@@ -4794,9 +4868,9 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="4">
@@ -4804,9 +4878,9 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="2:9">
@@ -4815,9 +4889,9 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="4">
@@ -4825,74 +4899,74 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="2:9" ht="17.25" thickBot="1">
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="15" spans="2:9">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="22" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="23"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="25"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="1" t="s">
@@ -4904,11 +4978,11 @@
       <c r="D19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="4">
@@ -4916,9 +4990,9 @@
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="4">
@@ -4926,9 +5000,9 @@
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="4">
@@ -4936,9 +5010,9 @@
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="4">
@@ -4946,9 +5020,9 @@
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="4">
@@ -4956,34 +5030,51 @@
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="2:7" ht="17.25" thickBot="1">
       <c r="B26" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C12:G13"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:G18"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="C25:G26"/>
     <mergeCell ref="E19:G19"/>
@@ -4991,23 +5082,6 @@
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="E23:G23"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:G18"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C12:G13"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5016,10 +5090,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7F7B84-7282-4CCC-8343-47F2B6CADC26}">
-  <dimension ref="B1:G44"/>
+  <dimension ref="B1:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43:G43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5032,42 +5106,42 @@
   <sheetData>
     <row r="1" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="37"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
@@ -5076,12 +5150,12 @@
       <c r="C6" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="4" t="s">
@@ -5090,12 +5164,12 @@
       <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="4" t="s">
@@ -5104,12 +5178,12 @@
       <c r="C8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="4" t="s">
@@ -5118,375 +5192,380 @@
       <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="4"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="2:7" ht="17.25" thickBot="1">
       <c r="B11" s="11"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="13" spans="2:7">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="36"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
       <c r="G14" s="37"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
+      <c r="C15" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="32" t="s">
+      <c r="C19" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="4"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-    </row>
-    <row r="22" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B22" s="11"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35"/>
-    </row>
-    <row r="23" spans="2:7" ht="17.25" thickBot="1"/>
-    <row r="24" spans="2:7">
-      <c r="B24" s="16" t="s">
+      <c r="B21" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="50"/>
+    </row>
+    <row r="24" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="47"/>
+    </row>
+    <row r="33" spans="2:7" ht="17.25" thickBot="1"/>
+    <row r="34" spans="2:7">
+      <c r="B34" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="36"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="37"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="26" t="s">
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="36"/>
+    </row>
+    <row r="35" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="37"/>
+    </row>
+    <row r="36" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B36" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C36" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="28"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="1" t="s">
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="23"/>
+    </row>
+    <row r="37" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="23"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D38" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="4" t="s">
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="20"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C39" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D39" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="33"/>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="4"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="4"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="33"/>
-    </row>
-    <row r="33" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B33" s="11"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="35"/>
-    </row>
-    <row r="34" spans="2:7" ht="17.25" thickBot="1"/>
-    <row r="35" spans="2:7">
-      <c r="B35" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="36"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="37"/>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="28"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="26"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="28"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="30"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="16"/>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="33"/>
+        <v>14</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="16"/>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="4"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="33"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="4"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="33"/>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="4"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="33"/>
-    </row>
-    <row r="44" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B44" s="11"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="35"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="16"/>
+    </row>
+    <row r="43" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B43" s="11"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="18"/>
+    </row>
+    <row r="45" spans="2:7" ht="17.25" thickBot="1"/>
+    <row r="46" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B46" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="36"/>
+    </row>
+    <row r="47" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B47" s="30"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="37"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="23"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="21"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="23"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="20"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="16"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="4"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="16"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="4"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="16"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="4"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="16"/>
+    </row>
+    <row r="55" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B55" s="11"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="B35:G36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:G38"/>
-    <mergeCell ref="B24:G25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="B13:G14"/>
+  <mergeCells count="38">
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:G16"/>
     <mergeCell ref="B2:G3"/>
@@ -5494,6 +5573,37 @@
     <mergeCell ref="C4:G5"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="B13:G14"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B34:G35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:G37"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B46:G47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:G49"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D54:G54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5518,42 +5628,42 @@
   <sheetData>
     <row r="1" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:7">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="37"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
@@ -5565,11 +5675,11 @@
       <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="4">
@@ -5581,11 +5691,11 @@
       <c r="D7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="4">
@@ -5597,11 +5707,11 @@
       <c r="D8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="4">
@@ -5614,9 +5724,9 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="2:7" ht="17.25" thickBot="1">
       <c r="B11" s="11">
@@ -5624,48 +5734,48 @@
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="13" spans="2:7">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="36"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
       <c r="G14" s="37"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="1" t="s">
@@ -5677,11 +5787,11 @@
       <c r="D17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="4">
@@ -5693,11 +5803,11 @@
       <c r="D18" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="4">
@@ -5709,11 +5819,11 @@
       <c r="D19" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="4">
@@ -5725,11 +5835,11 @@
       <c r="D20" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="4">
@@ -5741,11 +5851,11 @@
       <c r="D21" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="2:7" ht="17.25" thickBot="1">
       <c r="B22" s="11">
@@ -5753,48 +5863,48 @@
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="24" spans="2:7">
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
       <c r="G24" s="36"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
       <c r="G25" s="37"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="28"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="1" t="s">
@@ -5806,11 +5916,11 @@
       <c r="D28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="4">
@@ -5822,11 +5932,11 @@
       <c r="D29" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E29" s="32" t="s">
+      <c r="E29" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="16"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="4">
@@ -5838,11 +5948,11 @@
       <c r="D30" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="33"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="4">
@@ -5854,11 +5964,11 @@
       <c r="D31" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="16"/>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="4">
@@ -5866,9 +5976,9 @@
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="33"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="2:7" ht="17.25" thickBot="1">
       <c r="B33" s="11">
@@ -5876,48 +5986,48 @@
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="35"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="35" spans="2:7">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
       <c r="G35" s="36"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
       <c r="G36" s="37"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="28"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="23"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="26"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="28"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="23"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="1" t="s">
@@ -5929,11 +6039,11 @@
       <c r="D39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="29" t="s">
+      <c r="E39" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="30"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="20"/>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="4">
@@ -5945,11 +6055,11 @@
       <c r="D40" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E40" s="32" t="s">
+      <c r="E40" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="33"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="16"/>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="4">
@@ -5961,11 +6071,11 @@
       <c r="D41" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E41" s="32" t="s">
+      <c r="E41" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="F41" s="32"/>
-      <c r="G41" s="33"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="4">
@@ -5973,9 +6083,9 @@
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="33"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="4">
@@ -5983,9 +6093,9 @@
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="33"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="16"/>
     </row>
     <row r="44" spans="2:7" ht="17.25" thickBot="1">
       <c r="B44" s="11">
@@ -5993,48 +6103,48 @@
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="35"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="18"/>
     </row>
     <row r="45" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="46" spans="2:7">
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
       <c r="G46" s="36"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="18"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
       <c r="G47" s="37"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="28"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="23"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="26"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="28"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="23"/>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="1" t="s">
@@ -6046,11 +6156,11 @@
       <c r="D50" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="29" t="s">
+      <c r="E50" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="30"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="20"/>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="4">
@@ -6062,11 +6172,11 @@
       <c r="D51" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E51" s="32" t="s">
+      <c r="E51" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="F51" s="32"/>
-      <c r="G51" s="33"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="16"/>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="4">
@@ -6078,11 +6188,11 @@
       <c r="D52" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="E52" s="32" t="s">
+      <c r="E52" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="F52" s="32"/>
-      <c r="G52" s="33"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="16"/>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="4">
@@ -6090,9 +6200,9 @@
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="33"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="16"/>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="4">
@@ -6100,9 +6210,9 @@
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="33"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="16"/>
     </row>
     <row r="55" spans="2:7" ht="17.25" thickBot="1">
       <c r="B55" s="11">
@@ -6110,12 +6220,48 @@
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="35"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="B46:G47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="B35:G36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:G38"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B24:G25"/>
+    <mergeCell ref="B13:G14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
@@ -6124,42 +6270,6 @@
     <mergeCell ref="C4:G5"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B13:G14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B24:G25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="B35:G36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="B46:G47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E55:G55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
